--- a/teaching/traditional_assets/database/data/finland/finland_computers_peripherals.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_computers_peripherals.xlsx
@@ -591,100 +591,112 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.1267605633802817</v>
+        <v>-0.005020920502092054</v>
       </c>
       <c r="H2">
-        <v>-0.1267605633802817</v>
+        <v>-0.06631799163179916</v>
       </c>
       <c r="I2">
-        <v>-0.2827735644637053</v>
+        <v>-0.1077405857740586</v>
       </c>
       <c r="J2">
-        <v>-0.2827735644637053</v>
+        <v>-0.1077405857740586</v>
       </c>
       <c r="K2">
-        <v>-2.81</v>
+        <v>-1.17</v>
       </c>
       <c r="L2">
-        <v>-0.304442036836403</v>
+        <v>-0.1223849372384937</v>
       </c>
       <c r="M2">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02281481481481482</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.05480427046263345</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.008296296296296296</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.0199288256227758</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.098</v>
-      </c>
-      <c r="T2">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.378</v>
+        <v>0.105</v>
       </c>
       <c r="V2">
-        <v>0.056</v>
+        <v>0.01761744966442953</v>
+      </c>
+      <c r="W2">
+        <v>-0.740506329113924</v>
       </c>
       <c r="X2">
-        <v>0.1073437117289888</v>
+        <v>0.08494330876030783</v>
+      </c>
+      <c r="Y2">
+        <v>-0.8254496378742319</v>
+      </c>
+      <c r="Z2">
+        <v>3.64607170099161</v>
+      </c>
+      <c r="AA2">
+        <v>-0.3928299008390542</v>
       </c>
       <c r="AB2">
-        <v>0.09981291048007926</v>
+        <v>0.07264391290481806</v>
+      </c>
+      <c r="AC2">
+        <v>-0.4654738137438722</v>
       </c>
       <c r="AD2">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AG2">
-        <v>1.042</v>
+        <v>1.385</v>
       </c>
       <c r="AH2">
-        <v>0.1738066095471236</v>
+        <v>0.2</v>
       </c>
       <c r="AI2">
-        <v>0.4733333333333333</v>
+        <v>0.6263135771332493</v>
       </c>
       <c r="AJ2">
-        <v>0.1337268993839835</v>
+        <v>0.1885636487406399</v>
       </c>
       <c r="AK2">
-        <v>0.3974065598779557</v>
+        <v>0.6090589270008795</v>
       </c>
       <c r="AL2">
-        <v>0.312</v>
+        <v>0.152</v>
       </c>
       <c r="AM2">
-        <v>0.311</v>
+        <v>0.151</v>
       </c>
       <c r="AN2">
-        <v>-0.7029702970297029</v>
+        <v>-2.704174228675136</v>
       </c>
       <c r="AO2">
-        <v>-8.365384615384615</v>
+        <v>-6.776315789473685</v>
       </c>
       <c r="AP2">
-        <v>-0.5158415841584157</v>
+        <v>-2.513611615245009</v>
       </c>
       <c r="AQ2">
-        <v>-8.392282958199356</v>
+        <v>-6.821192052980133</v>
       </c>
     </row>
     <row r="3">
@@ -704,100 +716,112 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1267605633802817</v>
+        <v>-0.005020920502092054</v>
       </c>
       <c r="H3">
-        <v>-0.1267605633802817</v>
+        <v>-0.06631799163179916</v>
       </c>
       <c r="I3">
-        <v>-0.2827735644637053</v>
+        <v>-0.1077405857740586</v>
       </c>
       <c r="J3">
-        <v>-0.2827735644637053</v>
+        <v>-0.1077405857740586</v>
       </c>
       <c r="K3">
-        <v>-2.81</v>
+        <v>-1.17</v>
       </c>
       <c r="L3">
-        <v>-0.304442036836403</v>
+        <v>-0.1223849372384937</v>
       </c>
       <c r="M3">
-        <v>0.154</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02281481481481482</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.05480427046263345</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.056</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.008296296296296296</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0.0199288256227758</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.098</v>
-      </c>
-      <c r="T3">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.378</v>
+        <v>0.105</v>
       </c>
       <c r="V3">
-        <v>0.056</v>
+        <v>0.01761744966442953</v>
+      </c>
+      <c r="W3">
+        <v>-0.740506329113924</v>
       </c>
       <c r="X3">
-        <v>0.1073437117289888</v>
+        <v>0.08494330876030783</v>
+      </c>
+      <c r="Y3">
+        <v>-0.8254496378742319</v>
+      </c>
+      <c r="Z3">
+        <v>3.64607170099161</v>
+      </c>
+      <c r="AA3">
+        <v>-0.3928299008390542</v>
       </c>
       <c r="AB3">
-        <v>0.09981291048007926</v>
+        <v>0.07264391290481806</v>
+      </c>
+      <c r="AC3">
+        <v>-0.4654738137438722</v>
       </c>
       <c r="AD3">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AG3">
-        <v>1.042</v>
+        <v>1.385</v>
       </c>
       <c r="AH3">
-        <v>0.1738066095471236</v>
+        <v>0.2</v>
       </c>
       <c r="AI3">
-        <v>0.4733333333333333</v>
+        <v>0.6263135771332493</v>
       </c>
       <c r="AJ3">
-        <v>0.1337268993839835</v>
+        <v>0.1885636487406399</v>
       </c>
       <c r="AK3">
-        <v>0.3974065598779557</v>
+        <v>0.6090589270008795</v>
       </c>
       <c r="AL3">
-        <v>0.312</v>
+        <v>0.152</v>
       </c>
       <c r="AM3">
-        <v>0.311</v>
+        <v>0.151</v>
       </c>
       <c r="AN3">
-        <v>-0.7029702970297029</v>
+        <v>-2.704174228675136</v>
       </c>
       <c r="AO3">
-        <v>-8.365384615384615</v>
+        <v>-6.776315789473685</v>
       </c>
       <c r="AP3">
-        <v>-0.5158415841584157</v>
+        <v>-2.513611615245009</v>
       </c>
       <c r="AQ3">
-        <v>-8.392282958199356</v>
+        <v>-6.821192052980133</v>
       </c>
     </row>
   </sheetData>
